--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-natureDatasets.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-natureDatasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DADEA6-556C-4B9D-8612-9E9BE12A5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3F82A-BFEF-46CC-97AB-B667C5AC2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,63 +55,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>datasets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +92,82 @@
   </si>
   <si>
     <t>baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +556,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,39 +573,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>36365</v>
@@ -622,7 +641,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -654,7 +673,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>267313</v>
@@ -686,7 +705,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>602592</v>
@@ -718,7 +737,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>8910005</v>
@@ -750,7 +769,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2224385</v>
@@ -782,7 +801,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -814,7 +833,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -846,7 +865,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -878,7 +897,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -910,7 +929,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -942,7 +961,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -974,7 +993,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1006,7 +1025,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -1038,7 +1057,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -1070,7 +1089,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -1102,7 +1121,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -1134,7 +1153,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -1166,7 +1185,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>4173724142</v>

--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-natureDatasets.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-natureDatasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3F82A-BFEF-46CC-97AB-B667C5AC2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A6E60-00B5-4EF0-99CC-4B314F569ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,11 +155,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -571,7 +571,7 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -620,7 +620,8 @@
         <v>6.6000000000000005E-5</v>
       </c>
       <c r="F2">
-        <v>5.5999999999999999E-5</v>
+        <f>L2/1000</f>
+        <v>4.9000000000000005E-5</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G20">C2:C20/D2:D20</f>
@@ -632,14 +633,17 @@
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I20">C2:C20/F2:F20</f>
-        <v>1.0892857142857142</v>
+        <v>1.2448979591836733</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2:J20">C2:C20/C2:C20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -656,7 +660,8 @@
         <v>5.7000000000000003E-5</v>
       </c>
       <c r="F3">
-        <v>5.8E-5</v>
+        <f t="shared" ref="F3:F20" si="0">L3/1000</f>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -665,13 +670,16 @@
         <v>0.98245614035087714</v>
       </c>
       <c r="I3">
-        <v>0.96551724137931028</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -688,7 +696,8 @@
         <v>8.5000000000000006E-5</v>
       </c>
       <c r="F4">
-        <v>8.5000000000000006E-5</v>
+        <f t="shared" si="0"/>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="G4">
         <v>1.0884955752212391</v>
@@ -697,13 +706,16 @@
         <v>1.4470588235294117</v>
       </c>
       <c r="I4">
-        <v>1.4470588235294117</v>
+        <v>1.5974025974025974</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -720,7 +732,8 @@
         <v>1.6799999999999999E-4</v>
       </c>
       <c r="F5">
-        <v>1.64E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.4399999999999998E-4</v>
       </c>
       <c r="G5">
         <v>1.095022624434389</v>
@@ -729,13 +742,16 @@
         <v>1.4404761904761905</v>
       </c>
       <c r="I5">
-        <v>1.475609756097561</v>
+        <v>1.6805555555555558</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -752,7 +768,8 @@
         <v>2.7099999999999997E-4</v>
       </c>
       <c r="F6">
-        <v>2.7799999999999998E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.3899999999999998E-4</v>
       </c>
       <c r="G6">
         <v>1.0173611111111112</v>
@@ -761,13 +778,16 @@
         <v>1.0811808118081183</v>
       </c>
       <c r="I6">
-        <v>1.0539568345323742</v>
+        <v>1.2259414225941425</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -784,7 +804,8 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="F7">
-        <v>1.73E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.5099999999999998E-4</v>
       </c>
       <c r="G7">
         <v>1.0290697674418603</v>
@@ -793,15 +814,18 @@
         <v>1.0411764705882351</v>
       </c>
       <c r="I7">
-        <v>1.023121387283237</v>
+        <v>1.1721854304635762</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -816,7 +840,8 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F8">
-        <v>3.0699999999999998E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="G8">
         <v>0.99009900990099009</v>
@@ -825,15 +850,18 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.9771986970684039</v>
+        <v>1.0989010989010988</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -848,7 +876,8 @@
         <v>2.4600000000000002E-4</v>
       </c>
       <c r="F9">
-        <v>2.5700000000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.3799999999999998E-4</v>
       </c>
       <c r="G9">
         <v>0.97482014388489202</v>
@@ -857,15 +886,18 @@
         <v>1.1016260162601623</v>
       </c>
       <c r="I9">
-        <v>1.054474708171206</v>
+        <v>1.1386554621848739</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -880,7 +912,8 @@
         <v>1.054E-3</v>
       </c>
       <c r="F10">
-        <v>1.039E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.2900000000000003E-4</v>
       </c>
       <c r="G10">
         <v>1.1319043693322342</v>
@@ -889,15 +922,18 @@
         <v>2.6053130929791273</v>
       </c>
       <c r="I10">
-        <v>2.6429258902791148</v>
+        <v>2.9558665231431647</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -912,7 +948,8 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="F11">
-        <v>1.5299999999999999E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="G11">
         <v>0.99873015873015869</v>
@@ -921,15 +958,18 @@
         <v>0.98312499999999992</v>
       </c>
       <c r="I11">
-        <v>1.0281045751633988</v>
+        <v>1.0148387096774194</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -944,7 +984,8 @@
         <v>2.2330000000000002E-3</v>
       </c>
       <c r="F12">
-        <v>2.6840000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.2669999999999999E-3</v>
       </c>
       <c r="G12">
         <v>1.0513911620294598</v>
@@ -953,15 +994,18 @@
         <v>1.4384236453201968</v>
       </c>
       <c r="I12">
-        <v>1.1967213114754098</v>
+        <v>1.4168504631671814</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>2.2669999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -976,7 +1020,8 @@
         <v>4.091E-3</v>
       </c>
       <c r="F13">
-        <v>4.1920000000000004E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="G13">
         <v>0.98819717657949557</v>
@@ -985,15 +1030,18 @@
         <v>1.0437545832314838</v>
       </c>
       <c r="I13">
-        <v>1.0186068702290076</v>
+        <v>0.99533799533799527</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1008,7 +1056,8 @@
         <v>8.1930000000000006E-3</v>
       </c>
       <c r="F14">
-        <v>1.2925000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2199999999999999E-3</v>
       </c>
       <c r="G14">
         <v>1.5966057441253263</v>
@@ -1017,15 +1066,18 @@
         <v>1.4927377029171243</v>
       </c>
       <c r="I14">
-        <v>0.94622823984526105</v>
+        <v>1.4878345498783454</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -1040,7 +1092,8 @@
         <v>2.4406000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>2.7463999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0413000000000001E-2</v>
       </c>
       <c r="G15">
         <v>1.0925212027756361</v>
@@ -1049,15 +1102,18 @@
         <v>1.7417848070146684</v>
       </c>
       <c r="I15">
-        <v>1.5478444509175648</v>
+        <v>2.0824964483417427</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>20.413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -1072,7 +1128,8 @@
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="F16">
-        <v>1.3445E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3526E-2</v>
       </c>
       <c r="G16">
         <v>1.0293134783373394</v>
@@ -1081,15 +1138,18 @@
         <v>0.82621176470588231</v>
       </c>
       <c r="I16">
-        <v>1.3058386017106731</v>
+        <v>1.2980186307851544</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>13.526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -1104,7 +1164,8 @@
         <v>2.6075000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>2.5586000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8501999999999998E-2</v>
       </c>
       <c r="G17">
         <v>0.96251814223512322</v>
@@ -1113,15 +1174,18 @@
         <v>1.0173346116970277</v>
       </c>
       <c r="I17">
-        <v>1.0367779254279683</v>
+        <v>1.4337368933088315</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>18.501999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -1136,7 +1200,8 @@
         <v>0.10770200000000001</v>
       </c>
       <c r="F18">
-        <v>0.115591</v>
+        <f t="shared" si="0"/>
+        <v>9.8879000000000009E-2</v>
       </c>
       <c r="G18">
         <v>0.96386878268818654</v>
@@ -1145,15 +1210,18 @@
         <v>1.1943696495886797</v>
       </c>
       <c r="I18">
-        <v>1.1128548070351498</v>
+        <v>1.3009435775038176</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>98.879000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -1168,7 +1236,8 @@
         <v>3.1864789999999998</v>
       </c>
       <c r="F19">
-        <v>3.0544660000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.05518</v>
       </c>
       <c r="G19">
         <v>1.1027677903011952</v>
@@ -1177,15 +1246,18 @@
         <v>1.5611290706764425</v>
       </c>
       <c r="I19">
-        <v>1.6286005475261469</v>
+        <v>1.6282199412145928</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>3055.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>4173724142</v>
@@ -1200,7 +1272,8 @@
         <v>2.2072880000000001</v>
       </c>
       <c r="F20">
-        <v>2.2032750000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.261714</v>
       </c>
       <c r="G20">
         <v>1.1069963961175351</v>
@@ -1209,10 +1282,13 @@
         <v>1.1341596565559182</v>
       </c>
       <c r="I20">
-        <v>1.1362253917463774</v>
+        <v>1.1068671812616449</v>
       </c>
       <c r="J20">
         <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2261.7139999999999</v>
       </c>
     </row>
   </sheetData>
